--- a/bots/crawl_ch/output/vegi_coop_2023-01-26.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-01-26.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" t="n">
         <v>4.5</v>
@@ -1793,7 +1793,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
         <v>4.5</v>
@@ -1996,7 +1996,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
         <v>4.5</v>
@@ -2268,7 +2268,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" t="n">
         <v>4.5</v>
@@ -2402,7 +2402,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E34" t="n">
         <v>4.5</v>
@@ -2747,7 +2747,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E37" t="n">
         <v>4.5</v>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E44" t="n">
         <v>4.5</v>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55" t="n">
         <v>4.5</v>
@@ -4184,7 +4184,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E65" t="n">
         <v>4.5</v>
@@ -4858,7 +4858,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5605,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5670,7 +5670,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5922,7 +5922,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6060,7 +6060,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6312,7 +6312,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6446,7 +6446,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6714,7 +6714,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6800,7 +6800,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -6848,7 +6848,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6982,7 +6982,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7047,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7112,7 +7112,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7250,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7319,7 +7319,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7526,7 +7526,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E107" t="n">
         <v>4.5</v>
@@ -7660,7 +7660,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7729,7 +7729,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7794,7 +7794,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7863,7 +7863,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7932,7 +7932,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7997,7 +7997,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E113" t="n">
         <v>4.5</v>
@@ -8066,7 +8066,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8135,7 +8135,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8204,7 +8204,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8334,7 +8334,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8472,7 +8472,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8537,7 +8537,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8606,7 +8606,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8675,7 +8675,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9024,7 +9024,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E128" t="n">
         <v>4.5</v>
@@ -9093,7 +9093,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9166,7 +9166,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9187,7 +9187,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E130" t="n">
         <v>4.5</v>
@@ -9235,7 +9235,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9304,7 +9304,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9373,7 +9373,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E133" t="n">
         <v>4.5</v>
@@ -9442,7 +9442,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9584,7 +9584,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9649,7 +9649,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9718,7 +9718,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E138" t="n">
         <v>3.5</v>
@@ -9787,7 +9787,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9840,7 +9840,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9905,7 +9905,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9978,7 +9978,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10047,7 +10047,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10112,7 +10112,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10181,7 +10181,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10250,7 +10250,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10319,7 +10319,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10384,7 +10384,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10453,7 +10453,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10518,7 +10518,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10587,7 +10587,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E152" t="n">
         <v>4.5</v>
@@ -10733,7 +10733,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10800,7 +10800,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10890,7 +10890,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E155" t="n">
         <v>4.5</v>
@@ -10938,7 +10938,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11007,7 +11007,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11080,7 +11080,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11145,7 +11145,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11279,7 +11279,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11300,7 +11300,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11348,7 +11348,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11490,7 +11490,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11563,7 +11563,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11632,7 +11632,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11697,7 +11697,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11750,7 +11750,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11823,7 +11823,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11892,7 +11892,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11961,7 +11961,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11982,7 +11982,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E171" t="n">
         <v>4.5</v>
@@ -12030,7 +12030,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12099,7 +12099,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12168,7 +12168,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12189,7 +12189,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12237,7 +12237,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12306,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12375,7 +12375,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12448,7 +12448,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12517,7 +12517,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12586,7 +12586,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12655,7 +12655,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12706,7 +12706,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12779,7 +12779,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12852,7 +12852,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12917,7 +12917,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12986,7 +12986,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13049,7 +13049,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13114,7 +13114,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13135,10 +13135,10 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E188" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13252,7 +13252,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13317,7 +13317,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13386,7 +13386,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13455,7 +13455,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13524,7 +13524,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13731,7 +13731,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13796,7 +13796,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13869,7 +13869,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13934,7 +13934,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14003,7 +14003,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14072,7 +14072,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14137,7 +14137,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14279,7 +14279,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14348,7 +14348,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14369,7 +14369,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E206" t="n">
         <v>4.5</v>
@@ -14421,7 +14421,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14486,7 +14486,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14555,7 +14555,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14620,7 +14620,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14689,7 +14689,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14762,7 +14762,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14831,7 +14831,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14904,7 +14904,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14969,7 +14969,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15018,7 +15018,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15225,7 +15225,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15290,7 +15290,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15355,7 +15355,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15424,7 +15424,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15493,7 +15493,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15637,7 +15637,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15769,7 +15769,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15838,7 +15838,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15903,7 +15903,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15972,7 +15972,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16041,7 +16041,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16110,7 +16110,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16131,7 +16131,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E232" t="n">
         <v>4.5</v>
@@ -16179,7 +16179,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16200,7 +16200,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E233" t="n">
         <v>4.5</v>
@@ -16248,7 +16248,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16313,7 +16313,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16382,7 +16382,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16451,7 +16451,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16524,7 +16524,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16573,7 +16573,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16642,7 +16642,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16715,7 +16715,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16736,7 +16736,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E241" t="n">
         <v>3</v>
@@ -16784,7 +16784,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16857,7 +16857,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16930,7 +16930,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16999,7 +16999,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17068,7 +17068,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17115,7 +17115,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17184,7 +17184,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17326,7 +17326,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17399,7 +17399,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17472,7 +17472,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17541,7 +17541,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17614,7 +17614,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17683,7 +17683,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17756,7 +17756,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17902,7 +17902,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17971,7 +17971,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18044,7 +18044,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18113,7 +18113,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18186,7 +18186,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18207,7 +18207,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -18259,7 +18259,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18324,7 +18324,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18397,7 +18397,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18470,7 +18470,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18539,7 +18539,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18604,7 +18604,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18677,7 +18677,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18742,7 +18742,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18811,7 +18811,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18876,7 +18876,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18945,7 +18945,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19014,7 +19014,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19079,7 +19079,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19152,7 +19152,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19294,7 +19294,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19365,7 +19365,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19430,7 +19430,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19503,7 +19503,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19572,7 +19572,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19645,7 +19645,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19710,7 +19710,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19783,7 +19783,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19856,7 +19856,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19925,7 +19925,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19990,7 +19990,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20063,7 +20063,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20132,7 +20132,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20205,7 +20205,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20278,7 +20278,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20299,10 +20299,10 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E292" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20416,7 +20416,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20483,7 +20483,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20556,7 +20556,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20629,7 +20629,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20698,7 +20698,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20767,7 +20767,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20840,7 +20840,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20903,7 +20903,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20972,7 +20972,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21045,7 +21045,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21118,7 +21118,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21187,7 +21187,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21260,7 +21260,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21333,7 +21333,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21398,7 +21398,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21461,7 +21461,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21524,7 +21524,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21597,7 +21597,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21670,7 +21670,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21743,7 +21743,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21816,7 +21816,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21869,7 +21869,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21938,7 +21938,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22001,7 +22001,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22070,7 +22070,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22135,7 +22135,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22208,7 +22208,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22273,7 +22273,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22338,7 +22338,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22411,7 +22411,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22484,7 +22484,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22557,7 +22557,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22622,7 +22622,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22691,7 +22691,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22760,7 +22760,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22825,7 +22825,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22898,7 +22898,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22971,7 +22971,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23040,7 +23040,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23182,7 +23182,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23255,7 +23255,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23322,7 +23322,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23385,7 +23385,7 @@
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Gartensalat - Online kein Bestand 3.80 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Gartensalat 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N336" t="inlineStr">
@@ -23395,7 +23395,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23416,10 +23416,10 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E337" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23537,7 +23537,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23600,13 +23600,13 @@
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>Fairtrade Papaya 1 Stück - Online kein Bestand 2.70 Schweizer Franken</t>
+          <t>Fairtrade Papaya 1 Stück 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23669,7 +23669,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23742,7 +23742,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23811,7 +23811,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23880,7 +23880,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23949,7 +23949,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24022,7 +24022,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24095,7 +24095,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24168,7 +24168,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24237,7 +24237,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24306,7 +24306,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24375,7 +24375,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24440,7 +24440,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24505,7 +24505,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24574,7 +24574,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24647,7 +24647,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24720,7 +24720,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24769,7 +24769,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24838,7 +24838,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24885,7 +24885,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24958,7 +24958,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25031,7 +25031,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25100,7 +25100,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25169,7 +25169,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25242,7 +25242,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25307,7 +25307,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25380,7 +25380,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25453,7 +25453,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25526,7 +25526,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25595,7 +25595,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25668,7 +25668,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25741,7 +25741,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25814,7 +25814,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25883,7 +25883,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25956,7 +25956,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26029,7 +26029,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26100,7 +26100,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26169,7 +26169,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26242,7 +26242,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26315,7 +26315,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26388,7 +26388,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26457,7 +26457,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26530,7 +26530,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26603,7 +26603,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26676,7 +26676,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26749,7 +26749,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26822,7 +26822,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26895,7 +26895,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26958,7 +26958,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27031,7 +27031,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27104,7 +27104,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27167,13 +27167,13 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Shiitake-Pilze ca. 100g - Online kein Bestand 3.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Shiitake-Pilze ca. 100g 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27246,7 +27246,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27319,7 +27319,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27392,7 +27392,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27465,7 +27465,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27530,7 +27530,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27603,7 +27603,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27676,7 +27676,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27745,7 +27745,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27814,7 +27814,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27887,7 +27887,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27960,7 +27960,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28033,7 +28033,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28098,7 +28098,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28163,7 +28163,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28236,7 +28236,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28305,7 +28305,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28370,7 +28370,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28443,7 +28443,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28508,7 +28508,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28581,7 +28581,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28654,7 +28654,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28719,7 +28719,7 @@
       <c r="N412" t="inlineStr"/>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28792,7 +28792,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28865,7 +28865,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28938,7 +28938,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29003,7 +29003,7 @@
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29145,7 +29145,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29218,7 +29218,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29291,7 +29291,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29437,7 +29437,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29510,7 +29510,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29579,7 +29579,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29632,7 +29632,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29691,7 +29691,7 @@
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>Tomaten Monte Rosa ca. 1kg - Online kein Bestand 5.95 Schweizer Franken</t>
+          <t>Tomaten Monte Rosa ca. 1kg 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N426" t="inlineStr">
@@ -29701,7 +29701,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29768,7 +29768,7 @@
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29841,7 +29841,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29914,7 +29914,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29987,7 +29987,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30060,7 +30060,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30131,7 +30131,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30204,7 +30204,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30277,7 +30277,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30346,7 +30346,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30413,7 +30413,7 @@
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30482,7 +30482,7 @@
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30555,7 +30555,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30626,7 +30626,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30695,7 +30695,7 @@
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30768,7 +30768,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30841,7 +30841,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30912,7 +30912,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30979,7 +30979,7 @@
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31046,7 +31046,7 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31119,7 +31119,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31190,7 +31190,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31263,7 +31263,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31336,7 +31336,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31401,7 +31401,7 @@
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31474,7 +31474,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31547,7 +31547,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31620,7 +31620,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31693,7 +31693,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31762,7 +31762,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31835,7 +31835,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31908,7 +31908,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31977,7 +31977,7 @@
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32046,7 +32046,7 @@
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32111,7 +32111,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32184,7 +32184,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32235,7 +32235,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32308,7 +32308,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32361,7 +32361,7 @@
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32434,7 +32434,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32507,7 +32507,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32580,7 +32580,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32645,7 +32645,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32718,7 +32718,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32787,7 +32787,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32860,7 +32860,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32925,7 +32925,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32990,7 +32990,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33055,7 +33055,7 @@
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33120,7 +33120,7 @@
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33185,7 +33185,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33254,7 +33254,7 @@
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33327,7 +33327,7 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33396,7 +33396,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33469,7 +33469,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33538,7 +33538,7 @@
       <c r="N481" t="inlineStr"/>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33611,7 +33611,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33757,7 +33757,7 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33778,7 +33778,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E485" t="n">
         <v>4</v>
@@ -33830,7 +33830,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33899,7 +33899,7 @@
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34045,7 +34045,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34118,7 +34118,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34191,7 +34191,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34264,7 +34264,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34327,7 +34327,7 @@
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34384,7 +34384,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34447,7 +34447,7 @@
       <c r="N494" t="inlineStr"/>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34518,7 +34518,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34591,7 +34591,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34656,7 +34656,7 @@
       <c r="N497" t="inlineStr"/>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34729,7 +34729,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34802,7 +34802,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34865,7 +34865,7 @@
       <c r="N500" t="inlineStr"/>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34938,7 +34938,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35011,7 +35011,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35076,7 +35076,7 @@
       <c r="N503" t="inlineStr"/>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35147,7 +35147,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35214,7 +35214,7 @@
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35283,7 +35283,7 @@
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35356,7 +35356,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35429,7 +35429,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35502,7 +35502,7 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35575,7 +35575,7 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35648,7 +35648,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35715,7 +35715,7 @@
       <c r="N512" t="inlineStr"/>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35786,7 +35786,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35855,7 +35855,7 @@
       <c r="N514" t="inlineStr"/>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35926,7 +35926,7 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35997,7 +35997,7 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -36062,7 +36062,7 @@
       <c r="N517" t="inlineStr"/>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -36129,7 +36129,7 @@
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -36180,7 +36180,7 @@
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -36247,7 +36247,7 @@
       <c r="N520" t="inlineStr"/>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -36318,7 +36318,7 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -36383,7 +36383,7 @@
       <c r="N522" t="inlineStr"/>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -36452,7 +36452,7 @@
       <c r="N523" t="inlineStr"/>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -36519,7 +36519,7 @@
       <c r="N524" t="inlineStr"/>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
@@ -36590,7 +36590,7 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2023-01-26 06:51:04</t>
+          <t>2023-01-26 12:59:29</t>
         </is>
       </c>
     </row>
